--- a/regions/4/mshenebloba/mshenebloba_dziritadi machveneblebi.xlsx
+++ b/regions/4/mshenebloba/mshenebloba_dziritadi machveneblebi.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="225" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,12 +58,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +142,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -175,8 +187,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -231,8 +248,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 4" xfId="4"/>
+    <cellStyle name="Normal 5" xfId="5"/>
+    <cellStyle name="Normal 6" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -534,9 +556,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -544,7 +566,7 @@
     <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -563,7 +585,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -580,7 +602,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="24">
         <v>2006</v>
@@ -627,8 +649,14 @@
       <c r="P3" s="7">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q3" s="7">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -677,8 +705,14 @@
       <c r="P4" s="12">
         <v>1085.4000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q4" s="12">
+        <v>1168.4000000000001</v>
+      </c>
+      <c r="R4" s="12">
+        <v>1476.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
@@ -727,8 +761,14 @@
       <c r="P5" s="12">
         <v>1314.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q5" s="12">
+        <v>1557</v>
+      </c>
+      <c r="R5" s="12">
+        <v>1931.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -777,8 +817,14 @@
       <c r="P6" s="16">
         <v>10398</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q6" s="16">
+        <v>10543</v>
+      </c>
+      <c r="R6" s="16">
+        <v>11015</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -827,8 +873,14 @@
       <c r="P7" s="16">
         <v>10229</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q7" s="16">
+        <v>9750</v>
+      </c>
+      <c r="R7" s="16">
+        <v>10484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -877,8 +929,14 @@
       <c r="P8" s="12">
         <v>1520</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q8" s="12">
+        <v>1647.3</v>
+      </c>
+      <c r="R8" s="12">
+        <v>1631.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>2</v>
       </c>
@@ -927,8 +985,14 @@
       <c r="P9" s="20">
         <v>813.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q9" s="20">
+        <v>910.9</v>
+      </c>
+      <c r="R9" s="20">
+        <v>1141.9000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
@@ -977,8 +1041,14 @@
       <c r="P10" s="20">
         <v>189.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q10" s="20">
+        <v>196.8</v>
+      </c>
+      <c r="R10" s="20">
+        <v>209.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>3</v>
       </c>
@@ -1027,8 +1097,14 @@
       <c r="P11" s="20">
         <v>500.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q11" s="20">
+        <v>646.1</v>
+      </c>
+      <c r="R11" s="20">
+        <v>789.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
@@ -1077,8 +1153,14 @@
       <c r="P12" s="20">
         <v>265.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q12" s="20">
+        <v>84.3</v>
+      </c>
+      <c r="R12" s="20">
+        <v>235.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>4</v>
       </c>
@@ -1127,8 +1209,14 @@
       <c r="P13" s="20">
         <v>969</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q13" s="20">
+        <v>860</v>
+      </c>
+      <c r="R13" s="20">
+        <v>1186.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1145,7 +1233,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1162,7 +1250,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:16" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>

--- a/regions/4/mshenebloba/mshenebloba_dziritadi machveneblebi.xlsx
+++ b/regions/4/mshenebloba/mshenebloba_dziritadi machveneblebi.xlsx
@@ -556,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
   </sheetViews>
@@ -566,7 +566,7 @@
     <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -585,7 +585,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -602,7 +602,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="24">
         <v>2006</v>
@@ -655,8 +655,11 @@
       <c r="R3" s="7">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S3" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -711,8 +714,11 @@
       <c r="R4" s="12">
         <v>1476.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S4" s="12">
+        <v>1418.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
@@ -767,8 +773,11 @@
       <c r="R5" s="12">
         <v>1931.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S5" s="12">
+        <v>1885.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -823,8 +832,11 @@
       <c r="R6" s="16">
         <v>11015</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S6" s="16">
+        <v>10536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -879,8 +891,11 @@
       <c r="R7" s="16">
         <v>10484</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S7" s="16">
+        <v>10124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -935,8 +950,11 @@
       <c r="R8" s="12">
         <v>1631.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S8" s="12">
+        <v>2078.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>2</v>
       </c>
@@ -991,8 +1009,11 @@
       <c r="R9" s="20">
         <v>1141.9000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S9" s="20">
+        <v>1123.0999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
@@ -1047,8 +1068,11 @@
       <c r="R10" s="20">
         <v>209.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S10" s="20">
+        <v>257.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>3</v>
       </c>
@@ -1103,8 +1127,11 @@
       <c r="R11" s="20">
         <v>789.9</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S11" s="20">
+        <v>762.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
@@ -1159,8 +1186,11 @@
       <c r="R12" s="20">
         <v>235.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S12" s="20">
+        <v>77.599999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>4</v>
       </c>
@@ -1212,11 +1242,14 @@
       <c r="Q13" s="20">
         <v>860</v>
       </c>
-      <c r="R13" s="20">
+      <c r="R13" s="12">
         <v>1186.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13" s="12">
+        <v>1196.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1233,7 +1266,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1250,7 +1283,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:18" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
